--- a/data/case_data/brand_case.xlsx
+++ b/data/case_data/brand_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21277" windowHeight="8686" activeTab="1"/>
+    <workbookView windowWidth="21277" windowHeight="8686"/>
   </bookViews>
   <sheets>
     <sheet name="add_brand" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>测试模块</t>
   </si>
@@ -61,23 +61,46 @@
   </si>
   <si>
     <t>{
-        "name": "",
-        "type": "1688",
-        "resource_type": ["CPS","CPA"],
-        "balance_warning": "",
-        "account": "",
-        "password": "",
-        "company_info": {
-            "company": "",
-            "contact": "",
-            "contact_content": ""
-        },
-        "status": "",
-        "remark": ""
+        "brand_name": "测试",
+        "brand_status": "启用",
+        "brand_logo": get_path.get_image_path("logo.png"),
+        "brand_main_img": get_path.get_image_path('main_img.png'),
+        "main_categories": "",
+        "alias": "测试别名",
+        "english_name": "测试英文名",
+        "consumer_group": "测试消费群体",
+        "brand_positioning": "测试品牌定位",
+        "sort": "2147483647",
+        "establishment_time": "2023-11-11",
+        "origin": "测试发源地",
+        "affiliated_company": "测试所属公司",
+        "remark": "测试备注",
     }</t>
   </si>
   <si>
     <t>请输入供应商名称</t>
+  </si>
+  <si>
+    <t>添加品牌成功</t>
+  </si>
+  <si>
+    <t>{
+        "brand_name": "测试",
+        "brand_status": "启用",
+        "brand_logo": get_path.get_image_path("logo.png"),
+        "brand_main_img": get_path.get_image_path('main_img.png'),
+        "main_categories": "",
+        "alias": "测试别名",
+        "english_name": "测试英文名",
+        "consumer_group": "测试消费群体",
+        "brand_positioning": "测试品牌定位",
+        "sort": "2147483647",
+        "establishment_time": "2023-11-11",
+        "origin": "测试发源地",
+        "affiliated_company": "测试所属公司",
+        "remark": "测试备注",
+        "expected_outcome": "添加品牌成功"
+    }</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1096,11 +1119,14 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="71.3130434782609" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
@@ -1139,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -1156,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>

--- a/data/case_data/brand_case.xlsx
+++ b/data/case_data/brand_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21277" windowHeight="8686"/>
+    <workbookView windowWidth="21277" windowHeight="8686" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_brand" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>测试模块</t>
   </si>
@@ -48,70 +48,136 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>供应商管理</t>
-  </si>
-  <si>
-    <t>添加供应商</t>
-  </si>
-  <si>
-    <t>进入添加供应商页面</t>
-  </si>
-  <si>
-    <t>编辑供应商供应商名称为空</t>
+    <t>品牌管理</t>
+  </si>
+  <si>
+    <t>添加品牌</t>
+  </si>
+  <si>
+    <t>进入添加品牌页面</t>
+  </si>
+  <si>
+    <t>编辑品牌添加所有信息品牌成功</t>
   </si>
   <si>
     <t>{
-        "brand_name": "测试",
-        "brand_status": "启用",
-        "brand_logo": get_path.get_image_path("logo.png"),
-        "brand_main_img": get_path.get_image_path('main_img.png'),
-        "main_categories": "",
-        "alias": "测试别名",
-        "english_name": "测试英文名",
-        "consumer_group": "测试消费群体",
-        "brand_positioning": "测试品牌定位",
-        "sort": "2147483647",
-        "establishment_time": "2023-11-11",
-        "origin": "测试发源地",
-        "affiliated_company": "测试所属公司",
-        "remark": "测试备注",
+        'brand_name': '测试',
+        'brand_status': '启用',
+        'brand_logo': get_path.get_image_path('logo.png'),
+        'brand_main_img': get_path.get_image_path('main_img.png'),
+        'main_categories': '',
+        'alias': '测试别名',
+        'english_name': '测试英文名',
+        'consumer_group': '测试消费群体',
+        'brand_positioning': '测试品牌定位',
+        'sort': '2147483647',
+        'establishment_time': '2023-11-11',
+        'origin': '测试发源地',
+        'affiliated_company': '测试所属公司',
+        'remark': '测试备注',
     }</t>
   </si>
   <si>
-    <t>请输入供应商名称</t>
-  </si>
-  <si>
     <t>添加品牌成功</t>
   </si>
   <si>
+    <t>编辑品牌添加必填值品牌成功</t>
+  </si>
+  <si>
     <t>{
-        "brand_name": "测试",
-        "brand_status": "启用",
-        "brand_logo": get_path.get_image_path("logo.png"),
-        "brand_main_img": get_path.get_image_path('main_img.png'),
-        "main_categories": "",
-        "alias": "测试别名",
-        "english_name": "测试英文名",
-        "consumer_group": "测试消费群体",
-        "brand_positioning": "测试品牌定位",
-        "sort": "2147483647",
-        "establishment_time": "2023-11-11",
-        "origin": "测试发源地",
-        "affiliated_company": "测试所属公司",
-        "remark": "测试备注",
-        "expected_outcome": "添加品牌成功"
+        'brand_name': '测试',
+        'brand_status': '启用',
+        'brand_logo': get_path.get_image_path('logo.png'),
+        'brand_main_img': '',
+        'main_categories': '',
+        'alias': '',
+        'english_name': '',
+        'consumer_group': '',
+        'brand_positioning': '',
+        'sort': '2147483647',
+        'establishment_time': '',
+        'origin': '',
+        'affiliated_company': '',
+        'remark': '',
     }</t>
+  </si>
+  <si>
+    <t>编辑品牌未添加品牌名称</t>
+  </si>
+  <si>
+    <t>{
+        'brand_name': '',
+        'brand_status': '启用',
+        'brand_logo': get_path.get_image_path('logo.png'),
+        'brand_main_img': '',
+        'main_categories': '',
+        'alias': '',
+        'english_name': '',
+        'consumer_group': '',
+        'brand_positioning': '',
+        'sort': '',
+        'establishment_time': '',
+        'origin': '',
+        'affiliated_company': '',
+        'remark': '',
+    }</t>
+  </si>
+  <si>
+    <t>请输入品牌名称</t>
+  </si>
+  <si>
+    <t>编辑品牌未添加品牌logo</t>
+  </si>
+  <si>
+    <t>{
+        'brand_name': '测试',
+        'brand_status': '启用',
+        'brand_logo': '',
+        'brand_main_img': '',
+        'main_categories': '',
+        'alias': '',
+        'english_name': '',
+        'consumer_group': '',
+        'brand_positioning': '',
+        'sort': '',
+        'establishment_time': '',
+        'origin': '',
+        'affiliated_company': '',
+        'remark': '',
+    }</t>
+  </si>
+  <si>
+    <t>请上传logo</t>
+  </si>
+  <si>
+    <t>编辑品牌</t>
+  </si>
+  <si>
+    <t>进入编辑品牌页面</t>
+  </si>
+  <si>
+    <t>编辑品牌成功</t>
+  </si>
+  <si>
+    <t>修改完成</t>
+  </si>
+  <si>
+    <t>编辑品牌未输入品牌</t>
+  </si>
+  <si>
+    <t>编辑品牌未输入logo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -716,12 +782,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,16 +1103,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="11.2347826086957" customWidth="1"/>
-    <col min="3" max="4" width="19.7478260869565" customWidth="1"/>
+    <col min="3" max="3" width="19.7478260869565" customWidth="1"/>
+    <col min="4" max="4" width="29.3478260869565" customWidth="1"/>
+    <col min="5" max="5" width="74.0173913043478" customWidth="1"/>
     <col min="6" max="6" width="16.0260869565217" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1098,13 +1169,53 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1117,15 +1228,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="71.3130434782609" customWidth="1"/>
+    <col min="1" max="2" width="11.2347826086957" customWidth="1"/>
+    <col min="3" max="3" width="19.7478260869565" customWidth="1"/>
+    <col min="4" max="4" width="29.3478260869565" customWidth="1"/>
+    <col min="5" max="5" width="74.0173913043478" customWidth="1"/>
+    <col min="6" max="6" width="16.0260869565217" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -1148,24 +1263,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -1173,20 +1288,43 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="5:5">
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/case_data/brand_case.xlsx
+++ b/data/case_data/brand_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21277" windowHeight="8686" activeTab="1"/>
+    <workbookView windowWidth="21277" windowHeight="8686"/>
   </bookViews>
   <sheets>
     <sheet name="add_brand" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,8 @@
     <t>{
         'brand_name': '测试',
         'brand_status': '启用',
-        'brand_logo': get_path.get_image_path('logo.png'),
-        'brand_main_img': get_path.get_image_path('main_img.png'),
+        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
+        'brand_main_img': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
         'main_categories': '',
         'alias': '测试别名',
         'english_name': '测试英文名',
@@ -87,7 +87,7 @@
     <t>{
         'brand_name': '测试',
         'brand_status': '启用',
-        'brand_logo': get_path.get_image_path('logo.png'),
+        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
         'brand_main_img': '',
         'main_categories': '',
         'alias': '',
@@ -108,7 +108,7 @@
     <t>{
         'brand_name': '',
         'brand_status': '启用',
-        'brand_logo': get_path.get_image_path('logo.png'),
+        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
         'brand_main_img': '',
         'main_categories': '',
         'alias': '',
@@ -1105,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1230,8 +1230,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/data/case_data/brand_case.xlsx
+++ b/data/case_data/brand_case.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>测试模块</t>
   </si>
@@ -58,6 +58,105 @@
   </si>
   <si>
     <t>编辑品牌添加所有信息品牌成功</t>
+  </si>
+  <si>
+    <t>{
+        'brand_name': '测试',
+        'brand_status': '启用',
+        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
+        'brand_main_img': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
+        'main_categories': ["实物-1","哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈"],
+        'alias': '测试别名',
+        'english_name': '测试英文名',
+        'consumer_group': '测试消费群体',
+        'brand_positioning': '测试品牌定位',
+        'sort': '2147483647',
+        'establishment_time': '2023-11-11',
+        'origin': '测试发源地',
+        'affiliated_company': '测试所属公司',
+        'remark': '测试备注',
+    }</t>
+  </si>
+  <si>
+    <t>添加品牌成功</t>
+  </si>
+  <si>
+    <t>编辑品牌添加必填值品牌成功</t>
+  </si>
+  <si>
+    <t>{
+        'brand_name': '测试',
+        'brand_status': '启用',
+        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
+        'brand_main_img': '',
+        'main_categories': '',
+        'alias': '',
+        'english_name': '',
+        'consumer_group': '',
+        'brand_positioning': '',
+        'sort': '2147483647',
+        'establishment_time': '',
+        'origin': '',
+        'affiliated_company': '',
+        'remark': '',
+    }</t>
+  </si>
+  <si>
+    <t>编辑品牌未添加品牌名称</t>
+  </si>
+  <si>
+    <t>{
+        'brand_name': '',
+        'brand_status': '启用',
+        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
+        'brand_main_img': '',
+        'main_categories': '',
+        'alias': '',
+        'english_name': '',
+        'consumer_group': '',
+        'brand_positioning': '',
+        'sort': '',
+        'establishment_time': '',
+        'origin': '',
+        'affiliated_company': '',
+        'remark': '',
+    }</t>
+  </si>
+  <si>
+    <t>请输入品牌名称</t>
+  </si>
+  <si>
+    <t>编辑品牌未添加品牌logo</t>
+  </si>
+  <si>
+    <t>{
+        'brand_name': '测试',
+        'brand_status': '启用',
+        'brand_logo': '',
+        'brand_main_img': '',
+        'main_categories': '',
+        'alias': '',
+        'english_name': '',
+        'consumer_group': '',
+        'brand_positioning': '',
+        'sort': '',
+        'establishment_time': '',
+        'origin': '',
+        'affiliated_company': '',
+        'remark': '',
+    }</t>
+  </si>
+  <si>
+    <t>请上传logo</t>
+  </si>
+  <si>
+    <t>编辑品牌</t>
+  </si>
+  <si>
+    <t>进入编辑品牌页面</t>
+  </si>
+  <si>
+    <t>编辑品牌成功</t>
   </si>
   <si>
     <t>{
@@ -76,87 +175,6 @@
         'affiliated_company': '测试所属公司',
         'remark': '测试备注',
     }</t>
-  </si>
-  <si>
-    <t>添加品牌成功</t>
-  </si>
-  <si>
-    <t>编辑品牌添加必填值品牌成功</t>
-  </si>
-  <si>
-    <t>{
-        'brand_name': '测试',
-        'brand_status': '启用',
-        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
-        'brand_main_img': '',
-        'main_categories': '',
-        'alias': '',
-        'english_name': '',
-        'consumer_group': '',
-        'brand_positioning': '',
-        'sort': '2147483647',
-        'establishment_time': '',
-        'origin': '',
-        'affiliated_company': '',
-        'remark': '',
-    }</t>
-  </si>
-  <si>
-    <t>编辑品牌未添加品牌名称</t>
-  </si>
-  <si>
-    <t>{
-        'brand_name': '',
-        'brand_status': '启用',
-        'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
-        'brand_main_img': '',
-        'main_categories': '',
-        'alias': '',
-        'english_name': '',
-        'consumer_group': '',
-        'brand_positioning': '',
-        'sort': '',
-        'establishment_time': '',
-        'origin': '',
-        'affiliated_company': '',
-        'remark': '',
-    }</t>
-  </si>
-  <si>
-    <t>请输入品牌名称</t>
-  </si>
-  <si>
-    <t>编辑品牌未添加品牌logo</t>
-  </si>
-  <si>
-    <t>{
-        'brand_name': '测试',
-        'brand_status': '启用',
-        'brand_logo': '',
-        'brand_main_img': '',
-        'main_categories': '',
-        'alias': '',
-        'english_name': '',
-        'consumer_group': '',
-        'brand_positioning': '',
-        'sort': '',
-        'establishment_time': '',
-        'origin': '',
-        'affiliated_company': '',
-        'remark': '',
-    }</t>
-  </si>
-  <si>
-    <t>请上传logo</t>
-  </si>
-  <si>
-    <t>编辑品牌</t>
-  </si>
-  <si>
-    <t>进入编辑品牌页面</t>
-  </si>
-  <si>
-    <t>编辑品牌成功</t>
   </si>
   <si>
     <t>修改完成</t>
@@ -1106,7 +1124,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1277,10 +1295,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -1294,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -1314,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>

--- a/data/case_data/brand_case.xlsx
+++ b/data/case_data/brand_case.xlsx
@@ -65,7 +65,7 @@
         'brand_status': '启用',
         'brand_logo': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
         'brand_main_img': 'https://img.dac6.cn/warehouse/2716477990c53b277e7450a3c36935b8.png',
-        'main_categories': ["实物-1","哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈"],
+        'main_categories': ["实物-1","哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈-1"],
         'alias': '测试别名',
         'english_name': '测试英文名',
         'consumer_group': '测试消费群体',
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
